--- a/pim/check/tmpfile/京东映射关系-s101061301-9766.xlsx
+++ b/pim/check/tmpfile/京东映射关系-s101061301-9766.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模型" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="920">
   <si>
     <t xml:space="preserve">京东类目</t>
   </si>
@@ -159,6 +159,9 @@
     <t xml:space="preserve">[{"fieldId":832951,"attId":162878,"cid":9766,"displayName":"徽章","orderSort":0},{"fieldId":832952,"attId":162878,"cid":9766,"displayName":"撞色","orderSort":1},{"fieldId":832953,"attId":162878,"cid":9766,"displayName":"品牌LOGO","orderSort":2},{"fieldId":832954,"attId":162878,"cid":9766,"displayName":"图案","orderSort":3},{"fieldId":832955,"attId":162878,"cid":9766,"displayName":"字母","orderSort":4},{"fieldId":832956,"attId":162878,"cid":9766,"displayName":"刺绣","orderSort":5}]</t>
   </si>
   <si>
+    <t xml:space="preserve">customColor.customColorName</t>
+  </si>
+  <si>
     <t xml:space="preserve">1000012811</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
   </si>
   <si>
     <t xml:space="preserve">[{"fieldId":832949,"attId":81295,"cid":9766,"displayName":"内裤","orderSort":0},{"fieldId":577263,"attId":81295,"cid":9766,"displayName":"长裤","orderSort":1},{"fieldId":577264,"attId":81295,"cid":9766,"displayName":"短裤","orderSort":2},{"fieldId":485345,"attId":81295,"cid":9766,"displayName":"五分裤","orderSort":3},{"fieldId":485353,"attId":81295,"cid":9766,"displayName":"七分裤","orderSort":4},{"fieldId":485362,"attId":81295,"cid":9766,"displayName":"九分裤","orderSort":5}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customSize</t>
   </si>
   <si>
     <t xml:space="preserve">1000012812</t>
@@ -2785,7 +2791,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2809,6 +2815,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2872,12 +2885,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3030,19 +3047,19 @@
   </sheetPr>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.46"/>
@@ -3238,27 +3255,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>42</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3269,42 +3292,48 @@
         <v>6</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>23</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I8" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3315,19 +3344,19 @@
         <v>6</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3338,42 +3367,48 @@
         <v>6</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>23</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I11" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>42</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3383,38 +3418,38 @@
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="I12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3424,38 +3459,38 @@
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="I13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3466,19 +3501,19 @@
         <v>6</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>23</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3489,19 +3524,19 @@
         <v>6</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>23</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3512,19 +3547,19 @@
         <v>6</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3535,10 +3570,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>23</v>
@@ -3560,10 +3595,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>23</v>
@@ -3595,8 +3630,8 @@
   </sheetPr>
   <dimension ref="A1:H410"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A385" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G407" activeCellId="0" sqref="G407"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C133" activeCellId="0" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3613,10 +3648,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>16</v>
@@ -3625,10 +3660,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,10 +3674,10 @@
         <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3653,10 +3688,10 @@
         <v>22</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,10 +3702,10 @@
         <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3681,10 +3716,10 @@
         <v>22</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3695,10 +3730,10 @@
         <v>22</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3709,36 +3744,36 @@
         <v>22</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>112</v>
+      <c r="G8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3749,88 +3784,88 @@
         <v>29</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>117</v>
+      <c r="G10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>120</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>122</v>
+      <c r="G12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3841,10 +3876,10 @@
         <v>29</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3855,10 +3890,10 @@
         <v>29</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3869,36 +3904,36 @@
         <v>29</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>131</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3909,10 +3944,10 @@
         <v>35</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3923,10 +3958,10 @@
         <v>35</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3937,140 +3972,140 @@
         <v>35</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="C20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="H20" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="C21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="H21" s="4" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="C22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="G22" s="4" t="s">
         <v>146</v>
       </c>
+      <c r="H22" s="4" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="C23" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="G23" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="H23" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="C24" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="G24" s="4" t="s">
         <v>152</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4081,10 +4116,10 @@
         <v>35</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4095,36 +4130,36 @@
         <v>35</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="C27" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H27" s="3" t="s">
+      <c r="G27" s="4" t="s">
         <v>159</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4135,10 +4170,10 @@
         <v>35</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4149,36 +4184,36 @@
         <v>35</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="C30" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H30" s="3" t="s">
+      <c r="G30" s="4" t="s">
         <v>166</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4189,10 +4224,10 @@
         <v>35</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4203,10 +4238,10 @@
         <v>33</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4217,5322 +4252,5928 @@
         <v>33</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>174</v>
+      </c>
       <c r="E34" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="D35" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G34" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="0" t="s">
+      <c r="F35" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="D36" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="0" t="s">
+      <c r="F36" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="D37" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="0" t="s">
+      <c r="F37" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="D38" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="0" t="s">
+      <c r="F38" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="D39" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="0" t="s">
+      <c r="F39" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="D40" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="0" t="s">
+      <c r="F40" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="D41" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="0" t="s">
+      <c r="F41" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="D42" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G41" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="0" t="s">
+      <c r="F42" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="D43" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="0" t="s">
+      <c r="F43" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="D44" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="0" t="s">
+      <c r="F44" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="D45" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G44" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="0" t="s">
+      <c r="F45" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="D46" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E46" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G45" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="0" t="s">
+      <c r="F46" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="D47" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G46" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="0" t="s">
+      <c r="F47" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="D48" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E48" s="0" t="s">
+      <c r="F48" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="D49" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G48" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E49" s="0" t="s">
+      <c r="F49" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="D50" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G49" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="0" t="s">
+      <c r="F50" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="D51" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G50" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="0" t="s">
+      <c r="F51" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="D52" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="0" t="s">
+      <c r="F52" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="D53" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="E53" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G52" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="0" t="s">
+      <c r="F53" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="D54" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G53" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E54" s="0" t="s">
+      <c r="F54" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="D55" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G54" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="0" t="s">
+      <c r="F55" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="D56" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E56" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G55" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E56" s="0" t="s">
+      <c r="F56" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="D57" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G56" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E57" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F57" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E61" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E62" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>234</v>
+      </c>
       <c r="E64" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F64" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G64" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D65" s="0" t="s">
+        <v>236</v>
+      </c>
       <c r="E65" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F65" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G65" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="0" t="s">
+        <v>238</v>
+      </c>
       <c r="E66" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F66" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G66" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="0" t="s">
+        <v>240</v>
+      </c>
       <c r="E67" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F67" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G67" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68" s="0" t="s">
+        <v>242</v>
+      </c>
       <c r="E68" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F68" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G68" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D69" s="0" t="s">
+        <v>244</v>
+      </c>
       <c r="E69" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F69" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G69" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70" s="0" t="s">
+        <v>246</v>
+      </c>
       <c r="E70" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F70" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G70" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71" s="0" t="s">
+        <v>248</v>
+      </c>
       <c r="E71" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F71" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G71" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="0" t="s">
+        <v>250</v>
+      </c>
       <c r="E72" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F72" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G72" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="0" t="s">
+        <v>252</v>
+      </c>
       <c r="E73" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F73" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G73" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="0" t="s">
+        <v>254</v>
+      </c>
       <c r="E74" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F74" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G74" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75" s="0" t="s">
+        <v>256</v>
+      </c>
       <c r="E75" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F75" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G75" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D76" s="0" t="s">
+        <v>258</v>
+      </c>
       <c r="E76" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F76" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G76" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="H76" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D77" s="0" t="s">
+        <v>260</v>
+      </c>
       <c r="E77" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F77" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G77" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="0" t="s">
+        <v>262</v>
+      </c>
       <c r="E78" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F78" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G78" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="0" t="s">
+        <v>264</v>
+      </c>
       <c r="E79" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F79" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G79" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D80" s="0" t="s">
+        <v>266</v>
+      </c>
       <c r="E80" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F80" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G80" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81" s="0" t="s">
+        <v>268</v>
+      </c>
       <c r="E81" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F81" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G81" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82" s="0" t="s">
+        <v>270</v>
+      </c>
       <c r="E82" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F82" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G82" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D83" s="0" t="s">
+        <v>272</v>
+      </c>
       <c r="E83" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F83" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G83" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D84" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="E84" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F84" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G84" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="H84" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D85" s="0" t="s">
+        <v>276</v>
+      </c>
       <c r="E85" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F85" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G85" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="0" t="s">
+        <v>278</v>
+      </c>
       <c r="E86" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F86" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G86" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D87" s="0" t="s">
+        <v>280</v>
+      </c>
       <c r="E87" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F87" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G87" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="H87" s="0" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D88" s="0" t="s">
+        <v>282</v>
+      </c>
       <c r="E88" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F88" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G88" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="H88" s="0" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D89" s="0" t="s">
+        <v>284</v>
+      </c>
       <c r="E89" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F89" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G89" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="H89" s="0" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90" s="0" t="s">
+        <v>286</v>
+      </c>
       <c r="E90" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F90" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G90" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="H90" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D91" s="0" t="s">
+        <v>288</v>
+      </c>
       <c r="E91" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F91" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G91" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="H91" s="0" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D92" s="0" t="s">
+        <v>290</v>
+      </c>
       <c r="E92" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F92" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G92" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="H92" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D93" s="0" t="s">
+        <v>292</v>
+      </c>
       <c r="E93" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F93" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G93" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="H93" s="0" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D94" s="0" t="s">
+        <v>294</v>
+      </c>
       <c r="E94" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F94" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="H94" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G94" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="H94" s="0" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D95" s="0" t="s">
+        <v>296</v>
+      </c>
       <c r="E95" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F95" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="H95" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G95" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="H95" s="0" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D96" s="0" t="s">
+        <v>298</v>
+      </c>
       <c r="E96" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F96" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G96" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="H96" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G96" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="H96" s="0" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D97" s="0" t="s">
+        <v>300</v>
+      </c>
       <c r="E97" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F97" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G97" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G97" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="H97" s="0" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D98" s="0" t="s">
+        <v>302</v>
+      </c>
       <c r="E98" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F98" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G98" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G98" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="H98" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D99" s="0" t="s">
+        <v>304</v>
+      </c>
       <c r="E99" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F99" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G99" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="H99" s="0" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D100" s="0" t="s">
+        <v>306</v>
+      </c>
       <c r="E100" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F100" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G100" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="H100" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D101" s="0" t="s">
+        <v>308</v>
+      </c>
       <c r="E101" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F101" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="H101" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G101" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="H101" s="0" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D102" s="0" t="s">
+        <v>310</v>
+      </c>
       <c r="E102" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F102" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G102" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="H102" s="0" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D103" s="0" t="s">
+        <v>312</v>
+      </c>
       <c r="E103" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F103" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G103" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="H103" s="0" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D104" s="0" t="s">
+        <v>314</v>
+      </c>
       <c r="E104" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F104" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G104" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G104" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="H104" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D105" s="0" t="s">
+        <v>316</v>
+      </c>
       <c r="E105" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F105" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G105" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G105" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="H105" s="0" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D106" s="0" t="s">
+        <v>318</v>
+      </c>
       <c r="E106" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F106" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G106" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="H106" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D107" s="0" t="s">
+        <v>320</v>
+      </c>
       <c r="E107" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F107" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="H107" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G107" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="H107" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D108" s="0" t="s">
+        <v>322</v>
+      </c>
       <c r="E108" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F108" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="H108" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G108" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H108" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D109" s="0" t="s">
+        <v>324</v>
+      </c>
       <c r="E109" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F109" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="H109" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G109" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="H109" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D110" s="0" t="s">
+        <v>326</v>
+      </c>
       <c r="E110" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F110" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G110" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="H110" s="0" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D111" s="0" t="s">
+        <v>328</v>
+      </c>
       <c r="E111" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F111" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G111" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="H111" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D112" s="0" t="s">
+        <v>330</v>
+      </c>
       <c r="E112" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F112" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="H112" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G112" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="H112" s="0" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D113" s="0" t="s">
+        <v>332</v>
+      </c>
       <c r="E113" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F113" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G113" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="H113" s="0" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D114" s="0" t="s">
+        <v>334</v>
+      </c>
       <c r="E114" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F114" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G114" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="H114" s="0" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D115" s="0" t="s">
+        <v>336</v>
+      </c>
       <c r="E115" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F115" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G115" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="H115" s="0" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D116" s="0" t="s">
+        <v>338</v>
+      </c>
       <c r="E116" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F116" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G116" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="H116" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D117" s="0" t="s">
+        <v>340</v>
+      </c>
       <c r="E117" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E118" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E119" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E120" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E121" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E122" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E123" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>208</v>
+      </c>
       <c r="E125" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G125" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="H125" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G126" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="H126" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G127" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="H127" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="H128" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="H129" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="H130" s="0" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G131" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H131" s="0" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G132" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="H132" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G133" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H133" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G134" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H134" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G135" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="H135" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F136" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G136" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H136" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G137" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="H137" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G138" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="H138" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G139" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="H139" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F140" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G140" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="H140" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G141" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="H141" s="0" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F142" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G142" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="H142" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D143" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="H125" s="0" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F126" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G126" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="H126" s="0" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F127" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G127" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="H127" s="0" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F128" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G128" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="H128" s="0" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E129" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F129" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G129" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="H129" s="0" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E130" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F130" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G130" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="H130" s="0" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E131" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F131" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G131" s="0" t="s">
+      <c r="E143" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F143" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G143" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H143" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F144" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G144" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="H144" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G145" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="H145" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D146" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="H131" s="0" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E132" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F132" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G132" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="H132" s="0" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E133" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F133" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G133" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="H133" s="0" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E134" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F134" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G134" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="H134" s="0" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E135" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F135" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G135" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="H135" s="0" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E136" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F136" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G136" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="H136" s="0" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E137" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F137" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G137" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="H137" s="0" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E138" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F138" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G138" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="H138" s="0" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E139" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F139" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G139" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H139" s="0" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E140" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F140" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G140" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="H140" s="0" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E141" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F141" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G141" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="H141" s="0" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F142" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G142" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="H142" s="0" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E143" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F143" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G143" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="H143" s="0" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E144" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F144" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G144" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="H144" s="0" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F145" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G145" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="H145" s="0" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E146" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>220</v>
+      </c>
       <c r="E147" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E148" s="3" t="s">
+      <c r="A148" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F148" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="H148" s="3" t="s">
+      <c r="B148" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>387</v>
       </c>
+      <c r="D148" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E149" s="3" t="s">
+      <c r="A149" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F149" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="H149" s="3" t="s">
+      <c r="B149" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>390</v>
       </c>
+      <c r="D149" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="E150" s="3" t="s">
+      <c r="A150" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F150" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="H150" s="3" t="s">
+      <c r="B150" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>393</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E153" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E154" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E155" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E156" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E157" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E158" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="E159" s="3" t="s">
+      <c r="A159" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F159" s="3" t="s">
+      <c r="B159" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G159" s="3" t="s">
+      <c r="C159" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="H159" s="3" t="s">
+      <c r="D159" s="4" t="s">
         <v>413</v>
       </c>
+      <c r="E159" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="E160" s="3" t="s">
+      <c r="A160" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F160" s="3" t="s">
+      <c r="B160" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G160" s="3" t="s">
+      <c r="C160" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="H160" s="3" t="s">
+      <c r="D160" s="4" t="s">
         <v>417</v>
       </c>
+      <c r="E160" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E161" s="3" t="s">
+      <c r="A161" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F161" s="3" t="s">
+      <c r="B161" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G161" s="3" t="s">
+      <c r="C161" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="H161" s="3" t="s">
+      <c r="D161" s="4" t="s">
         <v>421</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E162" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E163" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E166" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E167" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E168" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E171" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E172" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E173" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E176" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E177" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E178" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E182" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E183" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E184" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E185" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E187" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E189" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E190" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E192" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E193" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E194" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E195" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E196" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E197" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E198" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E199" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E200" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E201" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E202" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E203" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E204" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E205" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E206" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E207" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G207" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E208" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E209" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G209" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E210" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E211" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G211" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E212" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E213" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G213" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E214" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E215" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E216" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E217" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E218" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G218" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E219" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G219" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E220" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E221" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E222" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G222" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E223" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G223" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E224" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G224" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E225" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G225" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E226" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G226" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H226" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E227" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G227" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E228" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G228" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H228" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E229" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G229" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E230" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G230" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E231" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G231" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E232" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G232" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E233" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G233" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E234" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G234" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E235" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G235" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E236" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E237" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G237" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E238" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G238" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E239" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E240" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G240" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E241" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E242" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E243" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E244" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G244" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E245" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E246" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G246" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E247" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E248" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G248" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E249" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G249" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E250" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G250" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E251" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G251" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E252" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G252" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E253" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G253" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E254" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G254" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E255" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G255" s="0" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E256" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G256" s="0" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E257" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G257" s="0" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E258" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G258" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E259" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F259" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G259" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E260" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G260" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E261" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G261" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E262" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G262" s="0" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E263" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G263" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E264" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F264" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G264" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H264" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E265" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G265" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E266" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G266" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H266" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E267" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G267" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E268" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G268" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E269" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F269" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G269" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E270" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F270" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G270" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E271" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F271" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G271" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="H271" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E272" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G272" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H272" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E273" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G273" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="H273" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E274" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G274" s="0" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H274" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E275" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F275" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G275" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H275" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E276" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G276" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H276" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E277" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F277" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G277" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H277" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E278" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F278" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G278" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H278" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E279" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F279" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G279" s="0" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H279" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E280" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G280" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H280" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E281" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G281" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H281" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E282" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F282" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G282" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H282" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E283" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G283" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H283" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E284" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G284" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H284" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E285" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F285" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G285" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H285" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E286" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F286" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G286" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H286" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E287" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F287" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G287" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="H287" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E288" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G288" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H288" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E289" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F289" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G289" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H289" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E290" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F290" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G290" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H290" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E291" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F291" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G291" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H291" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E292" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F292" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G292" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H292" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E293" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G293" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H293" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E294" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F294" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G294" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H294" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E295" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F295" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G295" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H295" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E296" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G296" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H296" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E297" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G297" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H297" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E298" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G298" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H298" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E299" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F299" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G299" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H299" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E300" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F300" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G300" s="0" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H300" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E301" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F301" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G301" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H301" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E302" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G302" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H302" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E303" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F303" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G303" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H303" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E304" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G304" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H304" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E305" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F305" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G305" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H305" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E306" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F306" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G306" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H306" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E307" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F307" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G307" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H307" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E308" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G308" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H308" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E309" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G309" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H309" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E310" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F310" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G310" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H310" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E311" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F311" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G311" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H311" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E312" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F312" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G312" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H312" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E313" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F313" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G313" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H313" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E314" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F314" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G314" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H314" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E315" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F315" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G315" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H315" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E316" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F316" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G316" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H316" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E317" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F317" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G317" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H317" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E318" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G318" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H318" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E319" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F319" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G319" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H319" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E320" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G320" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="H320" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E321" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G321" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H321" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E322" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F322" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G322" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H322" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E323" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F323" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G323" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H323" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E324" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F324" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G324" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H324" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E325" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F325" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G325" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="H325" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E326" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F326" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G326" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="H326" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E327" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G327" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H327" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E328" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G328" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="H328" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E329" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G329" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H329" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E330" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F330" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G330" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H330" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E331" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F331" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G331" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H331" s="0" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E332" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F332" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G332" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H332" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E333" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F333" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G333" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H333" s="0" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E334" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G334" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="H334" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E335" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G335" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H335" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E336" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F336" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G336" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H336" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E337" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G337" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="H337" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E338" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F338" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G338" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H338" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E339" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G339" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="H339" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E340" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G340" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H340" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D341" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D346" s="0" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D349" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="D350" s="0" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D352" s="0" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D357" s="0" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D359" s="0" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D364" s="0" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D365" s="0" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D367" s="0" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D369" s="0" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D370" s="0" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D371" s="0" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D372" s="0" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D374" s="0" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D375" s="0" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D376" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D377" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D378" s="0" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D379" s="0" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D380" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D381" s="0" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D382" s="0" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D383" s="0" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D384" s="0" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D385" s="0" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D386" s="0" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D387" s="0" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D388" s="0" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D389" s="0" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D390" s="0" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D391" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D392" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D393" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D394" s="0" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="D395" s="0" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D396" s="0" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D397" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D398" s="0" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="3" t="s">
+      <c r="A399" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B399" s="3" t="s">
+      <c r="B399" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C399" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="D399" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="E399" s="3" t="s">
+      <c r="C399" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="D399" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="E399" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F399" s="3" t="s">
+      <c r="F399" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G399" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="H399" s="3" t="s">
+      <c r="G399" s="4" t="s">
         <v>890</v>
       </c>
+      <c r="H399" s="4" t="s">
+        <v>892</v>
+      </c>
     </row>
     <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="3" t="s">
+      <c r="A400" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B400" s="3" t="s">
+      <c r="B400" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C400" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="D400" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="E400" s="3" t="s">
+      <c r="C400" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="D400" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="E400" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F400" s="3" t="s">
+      <c r="F400" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G400" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="H400" s="3" t="s">
+      <c r="G400" s="4" t="s">
         <v>893</v>
       </c>
+      <c r="H400" s="4" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="3" t="s">
+      <c r="A401" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B401" s="3" t="s">
+      <c r="B401" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C401" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="D401" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="E401" s="3" t="s">
+      <c r="C401" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="D401" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="E401" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F401" s="3" t="s">
+      <c r="F401" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G401" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="H401" s="3" t="s">
+      <c r="G401" s="4" t="s">
         <v>896</v>
       </c>
+      <c r="H401" s="4" t="s">
+        <v>898</v>
+      </c>
     </row>
     <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="3" t="s">
+      <c r="A402" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B402" s="3" t="s">
+      <c r="B402" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C402" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="D402" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="E402" s="3" t="s">
+      <c r="C402" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="D402" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="E402" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F402" s="3" t="s">
+      <c r="F402" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G402" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="H402" s="3" t="s">
+      <c r="G402" s="4" t="s">
         <v>899</v>
       </c>
+      <c r="H402" s="4" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="3" t="s">
+      <c r="A403" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B403" s="3" t="s">
+      <c r="B403" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C403" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="D403" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="E403" s="3" t="s">
+      <c r="C403" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="D403" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="E403" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F403" s="3" t="s">
+      <c r="F403" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G403" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="H403" s="3" t="s">
+      <c r="G403" s="4" t="s">
         <v>902</v>
+      </c>
+      <c r="H403" s="4" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9543,10 +10184,10 @@
         <v>39</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D404" s="0" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9557,36 +10198,36 @@
         <v>39</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D405" s="0" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="3" t="s">
+      <c r="A406" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B406" s="3" t="s">
+      <c r="B406" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C406" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="D406" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="E406" s="3" t="s">
+      <c r="C406" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="D406" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="E406" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F406" s="3" t="s">
+      <c r="F406" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G406" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="H406" s="3" t="s">
+      <c r="G406" s="4" t="s">
         <v>909</v>
+      </c>
+      <c r="H406" s="4" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9597,10 +10238,10 @@
         <v>39</v>
       </c>
       <c r="C407" s="0" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="D407" s="0" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9611,38 +10252,38 @@
         <v>39</v>
       </c>
       <c r="C408" s="0" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D408" s="0" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C409" s="0" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D409" s="0" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C410" s="0" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D410" s="0" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
   </sheetData>
